--- a/selp_YBE_600s.xlsx
+++ b/selp_YBE_600s.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lutelillo/Desktop/solver_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D43D0E3-6BFC-6F46-879B-1821D62F05FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608E3801-AB5A-1142-9B3C-23B6BAD33EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="347">
   <si>
     <t/>
   </si>
@@ -525,24 +525,6 @@
     <t>simpleYale/yale1.sh</t>
   </si>
   <si>
-    <t>simpleYale/yale10.sh</t>
-  </si>
-  <si>
-    <t>simpleYale/yale11.sh</t>
-  </si>
-  <si>
-    <t>simpleYale/yale13.sh</t>
-  </si>
-  <si>
-    <t>simpleYale/yale14.sh</t>
-  </si>
-  <si>
-    <t>simpleYale/yale15.sh</t>
-  </si>
-  <si>
-    <t>simpleYale/yale16.sh</t>
-  </si>
-  <si>
     <t>simpleYale/yale2.sh</t>
   </si>
   <si>
@@ -561,9 +543,6 @@
     <t>simpleYale/yale8.sh</t>
   </si>
   <si>
-    <t>simpleYale/yale9.sh</t>
-  </si>
-  <si>
     <t>bomb_problems/bmtc_bomb_0010_01.sh</t>
   </si>
   <si>
@@ -1084,13 +1063,28 @@
   </si>
   <si>
     <t>bomb_problems/btuc_bomb_0090.sh</t>
+  </si>
+  <si>
+    <t>unnamed</t>
+  </si>
+  <si>
+    <t>Yale Problems - Average</t>
+  </si>
+  <si>
+    <t>Bomb Problems - Average</t>
+  </si>
+  <si>
+    <t>Eligible Problems - Average</t>
+  </si>
+  <si>
+    <t>Total Problems - Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1099,6 +1093,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1136,8 +1136,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="cellBest" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1267,13 +1268,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F335"/>
+  <dimension ref="A1:F342"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B325" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A348" sqref="A348:G356"/>
+      <selection pane="bottomRight" activeCell="B339" sqref="B339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1284,7 +1285,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4413,15 +4414,15 @@
         <v>0.89171699999999998</v>
       </c>
       <c r="D148">
-        <f t="shared" ref="D148:D169" si="6">MIN($B148,$C148)</f>
+        <f t="shared" ref="D148:D158" si="6">MIN($B148,$C148)</f>
         <v>0.88518200000000002</v>
       </c>
       <c r="E148">
-        <f t="shared" ref="E148:E169" si="7">MEDIAN($B148,$C148)</f>
+        <f t="shared" ref="E148:E158" si="7">MEDIAN($B148,$C148)</f>
         <v>0.8884495</v>
       </c>
       <c r="F148">
-        <f t="shared" ref="F148:F169" si="8">MAX($B148,$C148)</f>
+        <f t="shared" ref="F148:F158" si="8">MAX($B148,$C148)</f>
         <v>0.89171699999999998</v>
       </c>
     </row>
@@ -4430,19 +4431,22 @@
         <v>162</v>
       </c>
       <c r="B149">
-        <v>600</v>
+        <v>1.5541700000000001</v>
       </c>
       <c r="C149">
-        <v>600</v>
+        <v>1.4952300000000001</v>
       </c>
       <c r="D149">
-        <v>600</v>
+        <f t="shared" si="6"/>
+        <v>1.4952300000000001</v>
       </c>
       <c r="E149">
-        <v>600</v>
+        <f t="shared" si="7"/>
+        <v>1.5247000000000002</v>
       </c>
       <c r="F149">
-        <v>600</v>
+        <f t="shared" si="8"/>
+        <v>1.5541700000000001</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
@@ -4450,67 +4454,73 @@
         <v>163</v>
       </c>
       <c r="B150">
-        <v>600</v>
+        <v>2.73468</v>
       </c>
       <c r="C150">
-        <v>600</v>
+        <v>2.8578000000000001</v>
       </c>
       <c r="D150">
-        <v>600</v>
+        <f t="shared" si="6"/>
+        <v>2.73468</v>
       </c>
       <c r="E150">
-        <v>600</v>
+        <f t="shared" si="7"/>
+        <v>2.7962400000000001</v>
       </c>
       <c r="F150">
-        <v>600</v>
+        <f t="shared" si="8"/>
+        <v>2.8578000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B151">
-        <v>1.5541700000000001</v>
+        <v>6.4146700000000001</v>
       </c>
       <c r="C151">
-        <v>1.4952300000000001</v>
+        <v>8.2946899999999992</v>
       </c>
       <c r="D151">
         <f t="shared" si="6"/>
-        <v>1.4952300000000001</v>
+        <v>6.4146700000000001</v>
       </c>
       <c r="E151">
         <f t="shared" si="7"/>
-        <v>1.5247000000000002</v>
+        <v>7.3546800000000001</v>
       </c>
       <c r="F151">
         <f t="shared" si="8"/>
-        <v>1.5541700000000001</v>
+        <v>8.2946899999999992</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B152">
-        <v>600</v>
+        <v>394.22699999999998</v>
       </c>
       <c r="C152">
-        <v>600</v>
+        <v>306.79500000000002</v>
       </c>
       <c r="D152">
-        <v>600</v>
+        <f t="shared" si="6"/>
+        <v>306.79500000000002</v>
       </c>
       <c r="E152">
-        <v>600</v>
+        <f t="shared" si="7"/>
+        <v>350.51099999999997</v>
       </c>
       <c r="F152">
-        <v>600</v>
+        <f t="shared" si="8"/>
+        <v>394.22699999999998</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B153">
         <v>600</v>
@@ -4530,7 +4540,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B154">
         <v>600</v>
@@ -4550,7 +4560,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B155">
         <v>600</v>
@@ -4573,22 +4583,19 @@
         <v>169</v>
       </c>
       <c r="B156">
-        <v>2.73468</v>
+        <v>600</v>
       </c>
       <c r="C156">
-        <v>2.8578000000000001</v>
+        <v>600</v>
       </c>
       <c r="D156">
-        <f t="shared" si="6"/>
-        <v>2.73468</v>
+        <v>600</v>
       </c>
       <c r="E156">
-        <f t="shared" si="7"/>
-        <v>2.7962400000000001</v>
+        <v>600</v>
       </c>
       <c r="F156">
-        <f t="shared" si="8"/>
-        <v>2.8578000000000001</v>
+        <v>600</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
@@ -4596,22 +4603,19 @@
         <v>170</v>
       </c>
       <c r="B157">
-        <v>6.4146700000000001</v>
+        <v>600</v>
       </c>
       <c r="C157">
-        <v>8.2946899999999992</v>
+        <v>600</v>
       </c>
       <c r="D157">
-        <f t="shared" si="6"/>
-        <v>6.4146700000000001</v>
+        <v>600</v>
       </c>
       <c r="E157">
-        <f t="shared" si="7"/>
-        <v>7.3546800000000001</v>
+        <v>600</v>
       </c>
       <c r="F157">
-        <f t="shared" si="8"/>
-        <v>8.2946899999999992</v>
+        <v>600</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
@@ -4619,22 +4623,19 @@
         <v>171</v>
       </c>
       <c r="B158">
-        <v>394.22699999999998</v>
+        <v>600</v>
       </c>
       <c r="C158">
-        <v>306.79500000000002</v>
+        <v>600</v>
       </c>
       <c r="D158">
-        <f t="shared" si="6"/>
-        <v>306.79500000000002</v>
+        <v>600</v>
       </c>
       <c r="E158">
-        <f t="shared" si="7"/>
-        <v>350.51099999999997</v>
+        <v>600</v>
       </c>
       <c r="F158">
-        <f t="shared" si="8"/>
-        <v>394.22699999999998</v>
+        <v>600</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
@@ -6962,19 +6963,22 @@
         <v>288</v>
       </c>
       <c r="B275">
-        <v>600</v>
+        <v>0.84829500000000002</v>
       </c>
       <c r="C275">
-        <v>600</v>
+        <v>0.80759700000000001</v>
       </c>
       <c r="D275">
-        <v>600</v>
+        <f t="shared" ref="D275:D276" si="9">MIN($B275,$C275)</f>
+        <v>0.80759700000000001</v>
       </c>
       <c r="E275">
-        <v>600</v>
+        <f t="shared" ref="E275:E276" si="10">MEDIAN($B275,$C275)</f>
+        <v>0.82794600000000007</v>
       </c>
       <c r="F275">
-        <v>600</v>
+        <f t="shared" ref="F275:F276" si="11">MAX($B275,$C275)</f>
+        <v>0.84829500000000002</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.15">
@@ -6982,19 +6986,22 @@
         <v>289</v>
       </c>
       <c r="B276">
-        <v>600</v>
+        <v>1.76305</v>
       </c>
       <c r="C276">
-        <v>600</v>
+        <v>1.73759</v>
       </c>
       <c r="D276">
-        <v>600</v>
+        <f t="shared" si="9"/>
+        <v>1.73759</v>
       </c>
       <c r="E276">
-        <v>600</v>
+        <f t="shared" si="10"/>
+        <v>1.7503199999999999</v>
       </c>
       <c r="F276">
-        <v>600</v>
+        <f t="shared" si="11"/>
+        <v>1.76305</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.15">
@@ -7102,22 +7109,19 @@
         <v>295</v>
       </c>
       <c r="B282">
-        <v>0.84829500000000002</v>
+        <v>600</v>
       </c>
       <c r="C282">
-        <v>0.80759700000000001</v>
+        <v>600</v>
       </c>
       <c r="D282">
-        <f t="shared" ref="D282:D283" si="9">MIN($B282,$C282)</f>
-        <v>0.80759700000000001</v>
+        <v>600</v>
       </c>
       <c r="E282">
-        <f t="shared" ref="E282:E283" si="10">MEDIAN($B282,$C282)</f>
-        <v>0.82794600000000007</v>
+        <v>600</v>
       </c>
       <c r="F282">
-        <f t="shared" ref="F282:F283" si="11">MAX($B282,$C282)</f>
-        <v>0.84829500000000002</v>
+        <v>600</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.15">
@@ -7125,22 +7129,19 @@
         <v>296</v>
       </c>
       <c r="B283">
-        <v>1.76305</v>
+        <v>600</v>
       </c>
       <c r="C283">
-        <v>1.73759</v>
+        <v>600</v>
       </c>
       <c r="D283">
-        <f t="shared" si="9"/>
-        <v>1.73759</v>
+        <v>600</v>
       </c>
       <c r="E283">
-        <f t="shared" si="10"/>
-        <v>1.7503199999999999</v>
+        <v>600</v>
       </c>
       <c r="F283">
-        <f t="shared" si="11"/>
-        <v>1.76305</v>
+        <v>600</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.15">
@@ -7328,19 +7329,22 @@
         <v>306</v>
       </c>
       <c r="B293">
-        <v>600</v>
+        <v>0.78005000000000002</v>
       </c>
       <c r="C293">
-        <v>600</v>
+        <v>0.72300799999999998</v>
       </c>
       <c r="D293">
-        <v>600</v>
+        <f t="shared" ref="D293:D313" si="12">MIN($B293,$C293)</f>
+        <v>0.72300799999999998</v>
       </c>
       <c r="E293">
-        <v>600</v>
+        <f t="shared" ref="E293:E313" si="13">MEDIAN($B293,$C293)</f>
+        <v>0.751529</v>
       </c>
       <c r="F293">
-        <v>600</v>
+        <f t="shared" ref="F293:F313" si="14">MAX($B293,$C293)</f>
+        <v>0.78005000000000002</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.15">
@@ -7348,19 +7352,22 @@
         <v>307</v>
       </c>
       <c r="B294">
-        <v>600</v>
+        <v>0.86656299999999997</v>
       </c>
       <c r="C294">
-        <v>600</v>
+        <v>0.86965800000000004</v>
       </c>
       <c r="D294">
-        <v>600</v>
+        <f t="shared" si="12"/>
+        <v>0.86656299999999997</v>
       </c>
       <c r="E294">
-        <v>600</v>
+        <f t="shared" si="13"/>
+        <v>0.86811050000000001</v>
       </c>
       <c r="F294">
-        <v>600</v>
+        <f t="shared" si="14"/>
+        <v>0.86965800000000004</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.15">
@@ -7368,19 +7375,22 @@
         <v>308</v>
       </c>
       <c r="B295">
-        <v>600</v>
+        <v>11.3352</v>
       </c>
       <c r="C295">
-        <v>600</v>
+        <v>4.1697100000000002</v>
       </c>
       <c r="D295">
-        <v>600</v>
+        <f t="shared" si="12"/>
+        <v>4.1697100000000002</v>
       </c>
       <c r="E295">
-        <v>600</v>
+        <f t="shared" si="13"/>
+        <v>7.7524550000000003</v>
       </c>
       <c r="F295">
-        <v>600</v>
+        <f t="shared" si="14"/>
+        <v>11.3352</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.15">
@@ -7468,22 +7478,19 @@
         <v>313</v>
       </c>
       <c r="B300">
-        <v>0.78005000000000002</v>
+        <v>600</v>
       </c>
       <c r="C300">
-        <v>0.72300799999999998</v>
+        <v>600</v>
       </c>
       <c r="D300">
-        <f t="shared" ref="D300:D320" si="12">MIN($B300,$C300)</f>
-        <v>0.72300799999999998</v>
+        <v>600</v>
       </c>
       <c r="E300">
-        <f t="shared" ref="E300:E320" si="13">MEDIAN($B300,$C300)</f>
-        <v>0.751529</v>
+        <v>600</v>
       </c>
       <c r="F300">
-        <f t="shared" ref="F300:F320" si="14">MAX($B300,$C300)</f>
-        <v>0.78005000000000002</v>
+        <v>600</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.15">
@@ -7491,22 +7498,19 @@
         <v>314</v>
       </c>
       <c r="B301">
-        <v>0.86656299999999997</v>
+        <v>600</v>
       </c>
       <c r="C301">
-        <v>0.86965800000000004</v>
+        <v>600</v>
       </c>
       <c r="D301">
-        <f t="shared" si="12"/>
-        <v>0.86656299999999997</v>
+        <v>600</v>
       </c>
       <c r="E301">
-        <f t="shared" si="13"/>
-        <v>0.86811050000000001</v>
+        <v>600</v>
       </c>
       <c r="F301">
-        <f t="shared" si="14"/>
-        <v>0.86965800000000004</v>
+        <v>600</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.15">
@@ -7514,22 +7518,19 @@
         <v>315</v>
       </c>
       <c r="B302">
-        <v>11.3352</v>
+        <v>600</v>
       </c>
       <c r="C302">
-        <v>4.1697100000000002</v>
+        <v>600</v>
       </c>
       <c r="D302">
-        <f t="shared" si="12"/>
-        <v>4.1697100000000002</v>
+        <v>600</v>
       </c>
       <c r="E302">
-        <f t="shared" si="13"/>
-        <v>7.7524550000000003</v>
+        <v>600</v>
       </c>
       <c r="F302">
-        <f t="shared" si="14"/>
-        <v>11.3352</v>
+        <v>600</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.15">
@@ -7697,19 +7698,22 @@
         <v>324</v>
       </c>
       <c r="B311">
-        <v>600</v>
+        <v>0.90789600000000004</v>
       </c>
       <c r="C311">
-        <v>600</v>
+        <v>0.91606100000000001</v>
       </c>
       <c r="D311">
-        <v>600</v>
+        <f t="shared" si="12"/>
+        <v>0.90789600000000004</v>
       </c>
       <c r="E311">
-        <v>600</v>
+        <f t="shared" si="13"/>
+        <v>0.91197850000000003</v>
       </c>
       <c r="F311">
-        <v>600</v>
+        <f t="shared" si="14"/>
+        <v>0.91606100000000001</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.15">
@@ -7717,19 +7721,22 @@
         <v>325</v>
       </c>
       <c r="B312">
-        <v>600</v>
+        <v>2.2540499999999999</v>
       </c>
       <c r="C312">
-        <v>600</v>
+        <v>1.9946600000000001</v>
       </c>
       <c r="D312">
-        <v>600</v>
+        <f t="shared" si="12"/>
+        <v>1.9946600000000001</v>
       </c>
       <c r="E312">
-        <v>600</v>
+        <f t="shared" si="13"/>
+        <v>2.124355</v>
       </c>
       <c r="F312">
-        <v>600</v>
+        <f t="shared" si="14"/>
+        <v>2.2540499999999999</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.15">
@@ -7737,19 +7744,22 @@
         <v>326</v>
       </c>
       <c r="B313">
-        <v>600</v>
+        <v>51.012900000000002</v>
       </c>
       <c r="C313">
-        <v>600</v>
+        <v>56.531999999999996</v>
       </c>
       <c r="D313">
-        <v>600</v>
+        <f t="shared" si="12"/>
+        <v>51.012900000000002</v>
       </c>
       <c r="E313">
-        <v>600</v>
+        <f t="shared" si="13"/>
+        <v>53.772449999999999</v>
       </c>
       <c r="F313">
-        <v>600</v>
+        <f t="shared" si="14"/>
+        <v>56.531999999999996</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.15">
@@ -7837,22 +7847,19 @@
         <v>331</v>
       </c>
       <c r="B318">
-        <v>0.90789600000000004</v>
+        <v>600</v>
       </c>
       <c r="C318">
-        <v>0.91606100000000001</v>
+        <v>600</v>
       </c>
       <c r="D318">
-        <f t="shared" si="12"/>
-        <v>0.90789600000000004</v>
+        <v>600</v>
       </c>
       <c r="E318">
-        <f t="shared" si="13"/>
-        <v>0.91197850000000003</v>
+        <v>600</v>
       </c>
       <c r="F318">
-        <f t="shared" si="14"/>
-        <v>0.91606100000000001</v>
+        <v>600</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.15">
@@ -7860,22 +7867,19 @@
         <v>332</v>
       </c>
       <c r="B319">
-        <v>2.2540499999999999</v>
+        <v>600</v>
       </c>
       <c r="C319">
-        <v>1.9946600000000001</v>
+        <v>600</v>
       </c>
       <c r="D319">
-        <f t="shared" si="12"/>
-        <v>1.9946600000000001</v>
+        <v>600</v>
       </c>
       <c r="E319">
-        <f t="shared" si="13"/>
-        <v>2.124355</v>
+        <v>600</v>
       </c>
       <c r="F319">
-        <f t="shared" si="14"/>
-        <v>2.2540499999999999</v>
+        <v>600</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.15">
@@ -7883,22 +7887,19 @@
         <v>333</v>
       </c>
       <c r="B320">
-        <v>51.012900000000002</v>
+        <v>600</v>
       </c>
       <c r="C320">
-        <v>56.531999999999996</v>
+        <v>600</v>
       </c>
       <c r="D320">
-        <f t="shared" si="12"/>
-        <v>51.012900000000002</v>
+        <v>600</v>
       </c>
       <c r="E320">
-        <f t="shared" si="13"/>
-        <v>53.772449999999999</v>
+        <v>600</v>
       </c>
       <c r="F320">
-        <f t="shared" si="14"/>
-        <v>56.531999999999996</v>
+        <v>600</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.15">
@@ -8061,144 +8062,40 @@
         <v>600</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A329" t="s">
-        <v>342</v>
-      </c>
-      <c r="B329">
-        <v>600</v>
-      </c>
-      <c r="C329">
-        <v>600</v>
-      </c>
-      <c r="D329">
-        <v>600</v>
-      </c>
-      <c r="E329">
-        <v>600</v>
-      </c>
-      <c r="F329">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A330" t="s">
+    <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A339" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B330">
-        <v>600</v>
-      </c>
-      <c r="C330">
-        <v>600</v>
-      </c>
-      <c r="D330">
-        <v>600</v>
-      </c>
-      <c r="E330">
-        <v>600</v>
-      </c>
-      <c r="F330">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A331" t="s">
+      <c r="B339" s="1">
+        <f>AVERAGE(E148:E154)</f>
+        <v>223.29643849999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A340" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B331">
-        <v>600</v>
-      </c>
-      <c r="C331">
-        <v>600</v>
-      </c>
-      <c r="D331">
-        <v>600</v>
-      </c>
-      <c r="E331">
-        <v>600</v>
-      </c>
-      <c r="F331">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A332" t="s">
+      <c r="B340" s="1">
+        <f>AVERAGE(E155:E328)</f>
+        <v>572.80896059770123</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A341" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B332">
-        <v>600</v>
-      </c>
-      <c r="C332">
-        <v>600</v>
-      </c>
-      <c r="D332">
-        <v>600</v>
-      </c>
-      <c r="E332">
-        <v>600</v>
-      </c>
-      <c r="F332">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A333" t="s">
+      <c r="B341" s="1">
+        <f>AVERAGE(E3:E147)</f>
+        <v>380.36623111379311</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A342" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B333">
-        <v>600</v>
-      </c>
-      <c r="C333">
-        <v>600</v>
-      </c>
-      <c r="D333">
-        <v>600</v>
-      </c>
-      <c r="E333">
-        <v>600</v>
-      </c>
-      <c r="F333">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A334" t="s">
-        <v>347</v>
-      </c>
-      <c r="B334">
-        <v>600</v>
-      </c>
-      <c r="C334">
-        <v>600</v>
-      </c>
-      <c r="D334">
-        <v>600</v>
-      </c>
-      <c r="E334">
-        <v>600</v>
-      </c>
-      <c r="F334">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A335" t="s">
-        <v>348</v>
-      </c>
-      <c r="B335">
-        <v>600</v>
-      </c>
-      <c r="C335">
-        <v>600</v>
-      </c>
-      <c r="D335">
-        <v>600</v>
-      </c>
-      <c r="E335">
-        <v>600</v>
-      </c>
-      <c r="F335">
-        <v>600</v>
+      <c r="B342" s="1">
+        <f>AVERAGE(E3:E328)</f>
+        <v>479.70839792944793</v>
       </c>
     </row>
   </sheetData>
